--- a/classes.xlsx
+++ b/classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\github\class_time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\github\schedule_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6528C6F7-52CD-48B2-9F18-EF903B9D89FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90667B-99EF-4ADE-A6A7-3AE274AB1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1935" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>생물</t>
   </si>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>작문</t>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -417,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:SAT7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5 12890:12890" x14ac:dyDescent="0.3">
@@ -522,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5 12890:12890" x14ac:dyDescent="0.3">
@@ -548,7 +556,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -556,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
